--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepos\Paper on Explainable ML\Explainable-ML-Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D78980-915B-4B8B-B0A2-34A44567777B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0CEBB-9629-4F2A-8152-8183161DCF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="3Q-ahead" sheetId="3" r:id="rId3"/>
     <sheet name="4Q-ahead" sheetId="4" r:id="rId4"/>
     <sheet name="MCB data" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="RMSE calculation" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="20">
   <si>
     <t>Quarter</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>NHits</t>
+  </si>
+  <si>
+    <t>BlockLSTM</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:I82"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,13 +459,14 @@
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -475,8 +479,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,13 +507,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -534,13 +542,16 @@
         <v>4.6774547456362301</v>
       </c>
       <c r="I3" s="2">
+        <v>2.44165681120929</v>
+      </c>
+      <c r="J3" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2.2020725388601101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -566,13 +577,16 @@
         <v>3.4233255418206099</v>
       </c>
       <c r="I4" s="2">
+        <v>2.5439186014367099</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -598,13 +612,16 @@
         <v>5.3703910589874004</v>
       </c>
       <c r="I5" s="2">
+        <v>2.5369997486424101</v>
+      </c>
+      <c r="J5" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -630,13 +647,16 @@
         <v>6.1133289683448098</v>
       </c>
       <c r="I6" s="2">
+        <v>2.53213374471069</v>
+      </c>
+      <c r="J6" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -662,13 +682,16 @@
         <v>7.5260818714046298</v>
       </c>
       <c r="I7" s="2">
+        <v>2.5179862419529702</v>
+      </c>
+      <c r="J7" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -694,13 +717,16 @@
         <v>7.2988105311689999</v>
       </c>
       <c r="I8" s="2">
+        <v>2.5865612202455601</v>
+      </c>
+      <c r="J8" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -726,13 +752,16 @@
         <v>5.8899038387614997</v>
       </c>
       <c r="I9" s="2">
+        <v>2.5989229495694799</v>
+      </c>
+      <c r="J9" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -758,13 +787,16 @@
         <v>4.9215744236608696</v>
       </c>
       <c r="I10" s="2">
+        <v>2.6256868483548002</v>
+      </c>
+      <c r="J10" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -790,13 +822,16 @@
         <v>5.9022521983191396</v>
       </c>
       <c r="I11" s="2">
+        <v>2.6810075827656701</v>
+      </c>
+      <c r="J11" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -822,13 +857,16 @@
         <v>5.2802764139066696</v>
       </c>
       <c r="I12" s="2">
+        <v>4.45777129097758</v>
+      </c>
+      <c r="J12" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -854,13 +892,16 @@
         <v>4.1960845392576598</v>
       </c>
       <c r="I13" s="2">
+        <v>4.5785980862017004</v>
+      </c>
+      <c r="J13" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -886,13 +927,16 @@
         <v>4.2324909681395697</v>
       </c>
       <c r="I14" s="2">
+        <v>4.5080596011792098</v>
+      </c>
+      <c r="J14" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -918,13 +962,16 @@
         <v>7.7279864604417998</v>
       </c>
       <c r="I15" s="2">
+        <v>4.7215480738843798</v>
+      </c>
+      <c r="J15" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -950,13 +997,16 @@
         <v>6.4987661819383797</v>
       </c>
       <c r="I16" s="2">
+        <v>4.7293530767182999</v>
+      </c>
+      <c r="J16" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -982,13 +1032,16 @@
         <v>6.5568338259468097</v>
       </c>
       <c r="I17" s="2">
+        <v>4.5124295084476298</v>
+      </c>
+      <c r="J17" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -1014,13 +1067,16 @@
         <v>8.5324197637101697</v>
       </c>
       <c r="I18" s="2">
+        <v>4.6820589676643998</v>
+      </c>
+      <c r="J18" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -1046,13 +1102,16 @@
         <v>7.8235114473118097</v>
       </c>
       <c r="I19" s="2">
+        <v>4.74643944224451</v>
+      </c>
+      <c r="J19" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -1078,13 +1137,16 @@
         <v>8.3425640877750098</v>
       </c>
       <c r="I20" s="2">
+        <v>4.5418543751745704</v>
+      </c>
+      <c r="J20" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -1110,13 +1172,16 @@
         <v>8.3966255273071404</v>
       </c>
       <c r="I21" s="2">
+        <v>4.69478545314551</v>
+      </c>
+      <c r="J21" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -1142,13 +1207,16 @@
         <v>8.1687109622665393</v>
       </c>
       <c r="I22" s="2">
+        <v>4.6249626966012203</v>
+      </c>
+      <c r="J22" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -1174,13 +1242,16 @@
         <v>6.5185051099498397</v>
       </c>
       <c r="I23" s="2">
+        <v>4.7038180589919296</v>
+      </c>
+      <c r="J23" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -1206,13 +1277,16 @@
         <v>6.0645669750481401</v>
       </c>
       <c r="I24" s="2">
+        <v>4.8019347132723897</v>
+      </c>
+      <c r="J24" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -1238,13 +1312,16 @@
         <v>10.7955504398759</v>
       </c>
       <c r="I25" s="2">
+        <v>4.8237527238564102</v>
+      </c>
+      <c r="J25" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
@@ -1270,13 +1347,16 @@
         <v>4.7085505474461096</v>
       </c>
       <c r="I26" s="2">
+        <v>4.8052834989353599</v>
+      </c>
+      <c r="J26" s="2">
         <v>6.1408789885611048</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1369,9 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,13 +1397,16 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42916</v>
       </c>
@@ -1348,13 +1432,16 @@
         <v>5.1491619151656298</v>
       </c>
       <c r="I31" s="2">
+        <v>2.45748947240499</v>
+      </c>
+      <c r="J31" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>2.2020725388601101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43008</v>
       </c>
@@ -1380,13 +1467,16 @@
         <v>3.7661983819483398</v>
       </c>
       <c r="I32" s="2">
+        <v>2.5698780395832799</v>
+      </c>
+      <c r="J32" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43100</v>
       </c>
@@ -1412,13 +1502,16 @@
         <v>5.6330548384674097</v>
       </c>
       <c r="I33" s="2">
+        <v>2.5117731275063502</v>
+      </c>
+      <c r="J33" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43190</v>
       </c>
@@ -1444,13 +1537,16 @@
         <v>5.5246226289575304</v>
       </c>
       <c r="I34" s="2">
+        <v>2.5244548616336</v>
+      </c>
+      <c r="J34" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43281</v>
       </c>
@@ -1476,13 +1572,16 @@
         <v>8.0394463721724208</v>
       </c>
       <c r="I35" s="2">
+        <v>2.56606911614085</v>
+      </c>
+      <c r="J35" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43373</v>
       </c>
@@ -1508,13 +1607,16 @@
         <v>6.6220256716757602</v>
       </c>
       <c r="I36" s="2">
+        <v>2.5643952248848598</v>
+      </c>
+      <c r="J36" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43465</v>
       </c>
@@ -1540,13 +1642,16 @@
         <v>6.4042064946043196</v>
       </c>
       <c r="I37" s="2">
+        <v>2.6690891996694801</v>
+      </c>
+      <c r="J37" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43555</v>
       </c>
@@ -1572,13 +1677,16 @@
         <v>5.3683938710231898</v>
       </c>
       <c r="I38" s="2">
+        <v>2.6805993429366102</v>
+      </c>
+      <c r="J38" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43646</v>
       </c>
@@ -1604,13 +1712,16 @@
         <v>6.5133327827813199</v>
       </c>
       <c r="I39" s="2">
+        <v>2.7363384671130402</v>
+      </c>
+      <c r="J39" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43738</v>
       </c>
@@ -1636,13 +1747,16 @@
         <v>6.4433655304710902</v>
       </c>
       <c r="I40" s="2">
+        <v>4.52009067196862</v>
+      </c>
+      <c r="J40" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43830</v>
       </c>
@@ -1668,13 +1782,16 @@
         <v>4.3043583814076802</v>
       </c>
       <c r="I41" s="2">
+        <v>4.5496126354479802</v>
+      </c>
+      <c r="J41" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43921</v>
       </c>
@@ -1700,13 +1817,16 @@
         <v>4.2566571102584403</v>
       </c>
       <c r="I42" s="2">
+        <v>4.6181884337251304</v>
+      </c>
+      <c r="J42" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44012</v>
       </c>
@@ -1732,13 +1852,16 @@
         <v>7.5526380875295898</v>
       </c>
       <c r="I43" s="2">
+        <v>4.6968274932310798</v>
+      </c>
+      <c r="J43" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44104</v>
       </c>
@@ -1764,13 +1887,16 @@
         <v>6.0362510413237196</v>
       </c>
       <c r="I44" s="2">
+        <v>4.7592737875804101</v>
+      </c>
+      <c r="J44" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44196</v>
       </c>
@@ -1796,13 +1922,16 @@
         <v>7.3079502336531998</v>
       </c>
       <c r="I45" s="2">
+        <v>4.5880856988009198</v>
+      </c>
+      <c r="J45" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44286</v>
       </c>
@@ -1828,13 +1957,16 @@
         <v>7.9632832514180096</v>
       </c>
       <c r="I46" s="2">
+        <v>4.8447454762981002</v>
+      </c>
+      <c r="J46" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44377</v>
       </c>
@@ -1860,13 +1992,16 @@
         <v>7.8707640386493898</v>
       </c>
       <c r="I47" s="2">
+        <v>4.7849776663808496</v>
+      </c>
+      <c r="J47" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44469</v>
       </c>
@@ -1892,13 +2027,16 @@
         <v>7.9438244602698402</v>
       </c>
       <c r="I48" s="2">
+        <v>4.7048603002178098</v>
+      </c>
+      <c r="J48" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44561</v>
       </c>
@@ -1924,13 +2062,16 @@
         <v>7.38260901408814</v>
       </c>
       <c r="I49" s="2">
+        <v>4.66767443713705</v>
+      </c>
+      <c r="J49" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44651</v>
       </c>
@@ -1956,13 +2097,16 @@
         <v>7.5678863172549002</v>
       </c>
       <c r="I50" s="2">
+        <v>4.6569300760734604</v>
+      </c>
+      <c r="J50" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44742</v>
       </c>
@@ -1988,13 +2132,16 @@
         <v>6.9384159338667697</v>
       </c>
       <c r="I51" s="2">
+        <v>4.7480058803114398</v>
+      </c>
+      <c r="J51" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44834</v>
       </c>
@@ -2020,13 +2167,16 @@
         <v>4.9445678552082297</v>
       </c>
       <c r="I52" s="2">
+        <v>4.8848155176708898</v>
+      </c>
+      <c r="J52" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44926</v>
       </c>
@@ -2052,13 +2202,16 @@
         <v>10.1338247382362</v>
       </c>
       <c r="I53" s="2">
+        <v>4.8407101797177496</v>
+      </c>
+      <c r="J53" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45016</v>
       </c>
@@ -2084,13 +2237,16 @@
         <v>5.5156783514458496</v>
       </c>
       <c r="I54" s="2">
+        <v>4.7842229739900297</v>
+      </c>
+      <c r="J54" s="2">
         <v>6.1408789885611048</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
@@ -2103,8 +2259,9 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,13 +2287,16 @@
         <v>12</v>
       </c>
       <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
         <v>11</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42916</v>
       </c>
@@ -2162,13 +2322,16 @@
         <v>4.1883420053872698</v>
       </c>
       <c r="I59" s="2">
+        <v>2.3690428179444001</v>
+      </c>
+      <c r="J59" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>2.2020725388601101</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43008</v>
       </c>
@@ -2194,13 +2357,16 @@
         <v>5.2062710842792104</v>
       </c>
       <c r="I60" s="2">
+        <v>2.3252454848388799</v>
+      </c>
+      <c r="J60" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43100</v>
       </c>
@@ -2226,13 +2392,16 @@
         <v>4.6646848787007196</v>
       </c>
       <c r="I61" s="2">
+        <v>2.3396209797087</v>
+      </c>
+      <c r="J61" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43190</v>
       </c>
@@ -2258,13 +2427,16 @@
         <v>4.8304858971275504</v>
       </c>
       <c r="I62" s="2">
+        <v>2.3985679717449</v>
+      </c>
+      <c r="J62" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43281</v>
       </c>
@@ -2290,13 +2462,16 @@
         <v>6.6304588642050302</v>
       </c>
       <c r="I63" s="2">
+        <v>2.3451412963040701</v>
+      </c>
+      <c r="J63" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43373</v>
       </c>
@@ -2322,13 +2497,16 @@
         <v>6.5675888291554401</v>
       </c>
       <c r="I64" s="2">
+        <v>2.4025385097852001</v>
+      </c>
+      <c r="J64" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43465</v>
       </c>
@@ -2354,13 +2532,16 @@
         <v>5.2553456753565602</v>
       </c>
       <c r="I65" s="2">
+        <v>2.39208221714284</v>
+      </c>
+      <c r="J65" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43555</v>
       </c>
@@ -2386,13 +2567,16 @@
         <v>4.8072858351087699</v>
       </c>
       <c r="I66" s="2">
+        <v>2.35595291508583</v>
+      </c>
+      <c r="J66" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43646</v>
       </c>
@@ -2418,13 +2602,16 @@
         <v>7.8623058762917903</v>
       </c>
       <c r="I67" s="2">
+        <v>2.3978982897606</v>
+      </c>
+      <c r="J67" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43738</v>
       </c>
@@ -2450,13 +2637,16 @@
         <v>5.7152869632661103</v>
       </c>
       <c r="I68" s="2">
+        <v>3.9786903919912802</v>
+      </c>
+      <c r="J68" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43830</v>
       </c>
@@ -2482,13 +2672,16 @@
         <v>5.2428854644939902</v>
       </c>
       <c r="I69" s="2">
+        <v>4.3617058842185497</v>
+      </c>
+      <c r="J69" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43921</v>
       </c>
@@ -2514,13 +2707,16 @@
         <v>5.4485975497818604</v>
       </c>
       <c r="I70" s="2">
+        <v>4.2795968422306299</v>
+      </c>
+      <c r="J70" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44012</v>
       </c>
@@ -2546,13 +2742,16 @@
         <v>8.1181912346682399</v>
       </c>
       <c r="I71" s="2">
+        <v>4.3511301850696302</v>
+      </c>
+      <c r="J71" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44104</v>
       </c>
@@ -2578,13 +2777,16 @@
         <v>7.3834666032540301</v>
       </c>
       <c r="I72" s="2">
+        <v>4.3227701962372498</v>
+      </c>
+      <c r="J72" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44196</v>
       </c>
@@ -2610,13 +2812,16 @@
         <v>6.6934209029347604</v>
       </c>
       <c r="I73" s="2">
+        <v>4.3275818259056402</v>
+      </c>
+      <c r="J73" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44286</v>
       </c>
@@ -2642,13 +2847,16 @@
         <v>3.4596708511945802</v>
       </c>
       <c r="I74" s="2">
+        <v>4.3571449148812604</v>
+      </c>
+      <c r="J74" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44377</v>
       </c>
@@ -2674,13 +2882,16 @@
         <v>8.7124060986523606</v>
       </c>
       <c r="I75" s="2">
+        <v>4.3036719799302698</v>
+      </c>
+      <c r="J75" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44469</v>
       </c>
@@ -2706,13 +2917,16 @@
         <v>5.7920197725999998</v>
       </c>
       <c r="I76" s="2">
+        <v>4.3091971674096801</v>
+      </c>
+      <c r="J76" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44561</v>
       </c>
@@ -2738,13 +2952,16 @@
         <v>6.20213332963535</v>
       </c>
       <c r="I77" s="2">
+        <v>4.35878926932424</v>
+      </c>
+      <c r="J77" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44651</v>
       </c>
@@ -2770,13 +2987,16 @@
         <v>6.4132058992091503</v>
       </c>
       <c r="I78" s="2">
+        <v>4.3768986177598102</v>
+      </c>
+      <c r="J78" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44742</v>
       </c>
@@ -2802,13 +3022,16 @@
         <v>6.3550144703220299</v>
       </c>
       <c r="I79" s="2">
+        <v>4.3583952488964703</v>
+      </c>
+      <c r="J79" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44834</v>
       </c>
@@ -2834,13 +3057,16 @@
         <v>4.3161912053296296</v>
       </c>
       <c r="I80" s="2">
+        <v>4.3855195580015804</v>
+      </c>
+      <c r="J80" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44926</v>
       </c>
@@ -2866,13 +3092,16 @@
         <v>6.2603899623632797</v>
       </c>
       <c r="I81" s="2">
+        <v>4.3964755308225101</v>
+      </c>
+      <c r="J81" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45016</v>
       </c>
@@ -2898,17 +3127,20 @@
         <v>2.8254300207559799</v>
       </c>
       <c r="I82" s="2">
+        <v>4.46716638651891</v>
+      </c>
+      <c r="J82" s="2">
         <v>6.1408789885611048</v>
       </c>
-      <c r="J82" s="2">
+      <c r="K82" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A57:K57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2916,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781542C-7DFA-496D-8E17-6C074DB04D1B}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:I79"/>
+      <selection activeCell="B57" sqref="B57:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2932,11 +3164,12 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2949,8 +3182,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2976,13 +3210,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -3008,13 +3245,16 @@
         <v>4.6193536284727204</v>
       </c>
       <c r="I3" s="2">
+        <v>2.43711218129447</v>
+      </c>
+      <c r="J3" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -3040,13 +3280,16 @@
         <v>4.1418857663187501</v>
       </c>
       <c r="I4" s="2">
+        <v>2.5415237334118599</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -3072,13 +3315,16 @@
         <v>4.8873957752018402</v>
       </c>
       <c r="I5" s="2">
+        <v>2.5501968566889399</v>
+      </c>
+      <c r="J5" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -3104,13 +3350,16 @@
         <v>6.4257602474325299</v>
       </c>
       <c r="I6" s="2">
+        <v>2.5444420875625</v>
+      </c>
+      <c r="J6" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -3136,13 +3385,16 @@
         <v>7.6610715728240102</v>
       </c>
       <c r="I7" s="2">
+        <v>2.52923978260907</v>
+      </c>
+      <c r="J7" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -3168,13 +3420,16 @@
         <v>6.6938187315710902</v>
       </c>
       <c r="I8" s="2">
+        <v>2.5864439191250899</v>
+      </c>
+      <c r="J8" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -3200,13 +3455,16 @@
         <v>5.5418148440919301</v>
       </c>
       <c r="I9" s="2">
+        <v>2.59676649431877</v>
+      </c>
+      <c r="J9" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -3232,13 +3490,16 @@
         <v>5.1818504649713404</v>
       </c>
       <c r="I10" s="2">
+        <v>2.6372450989631</v>
+      </c>
+      <c r="J10" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -3264,13 +3525,16 @@
         <v>5.3097756390877997</v>
       </c>
       <c r="I11" s="2">
+        <v>2.68101864663564</v>
+      </c>
+      <c r="J11" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -3296,13 +3560,16 @@
         <v>4.1404702971958196</v>
       </c>
       <c r="I12" s="2">
+        <v>4.4136195304831096</v>
+      </c>
+      <c r="J12" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -3328,13 +3595,16 @@
         <v>4.7723672466587699</v>
       </c>
       <c r="I13" s="2">
+        <v>4.5822644088978901</v>
+      </c>
+      <c r="J13" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -3360,13 +3630,16 @@
         <v>5.5817656670602096</v>
       </c>
       <c r="I14" s="2">
+        <v>4.5116572652773703</v>
+      </c>
+      <c r="J14" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -3392,13 +3665,16 @@
         <v>7.4982823382071997</v>
       </c>
       <c r="I15" s="2">
+        <v>4.6799998280992297</v>
+      </c>
+      <c r="J15" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -3424,13 +3700,16 @@
         <v>5.4477394107016801</v>
       </c>
       <c r="I16" s="2">
+        <v>4.6972389287744702</v>
+      </c>
+      <c r="J16" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -3456,13 +3735,16 @@
         <v>6.9284547173136097</v>
       </c>
       <c r="I17" s="2">
+        <v>4.4771609014675704</v>
+      </c>
+      <c r="J17" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -3488,13 +3770,16 @@
         <v>7.7995818815242401</v>
       </c>
       <c r="I18" s="2">
+        <v>4.6402141641452799</v>
+      </c>
+      <c r="J18" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -3520,13 +3805,16 @@
         <v>7.3182270348652203</v>
       </c>
       <c r="I19" s="2">
+        <v>4.7221147791152296</v>
+      </c>
+      <c r="J19" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -3552,13 +3840,16 @@
         <v>6.6915577213303497</v>
       </c>
       <c r="I20" s="2">
+        <v>4.5156981205080902</v>
+      </c>
+      <c r="J20" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -3584,13 +3875,16 @@
         <v>8.4792796250590499</v>
       </c>
       <c r="I21" s="2">
+        <v>4.6635062234916296</v>
+      </c>
+      <c r="J21" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -3616,13 +3910,16 @@
         <v>8.4360014324994008</v>
       </c>
       <c r="I22" s="2">
+        <v>4.6130127462482697</v>
+      </c>
+      <c r="J22" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -3648,13 +3945,16 @@
         <v>8.2143983680238097</v>
       </c>
       <c r="I23" s="2">
+        <v>4.6857210611260198</v>
+      </c>
+      <c r="J23" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -3680,13 +3980,16 @@
         <v>6.7300078930386897</v>
       </c>
       <c r="I24" s="2">
+        <v>4.7843677053171296</v>
+      </c>
+      <c r="J24" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -3712,13 +4015,16 @@
         <v>9.47645358410551</v>
       </c>
       <c r="I25" s="2">
+        <v>4.7950545399372499</v>
+      </c>
+      <c r="J25" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3731,8 +4037,9 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3758,13 +4065,16 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42916</v>
       </c>
@@ -3790,13 +4100,16 @@
         <v>4.3390292158674599</v>
       </c>
       <c r="I30" s="2">
+        <v>2.4294883322063998</v>
+      </c>
+      <c r="J30" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43008</v>
       </c>
@@ -3822,13 +4135,16 @@
         <v>3.8958671743679698</v>
       </c>
       <c r="I31" s="2">
+        <v>2.55243645963189</v>
+      </c>
+      <c r="J31" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43100</v>
       </c>
@@ -3854,13 +4170,16 @@
         <v>5.5917126657909204</v>
       </c>
       <c r="I32" s="2">
+        <v>2.5176999209639699</v>
+      </c>
+      <c r="J32" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43190</v>
       </c>
@@ -3886,13 +4205,16 @@
         <v>5.7139361756923099</v>
       </c>
       <c r="I33" s="2">
+        <v>2.5486375045990801</v>
+      </c>
+      <c r="J33" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43281</v>
       </c>
@@ -3918,13 +4240,16 @@
         <v>7.7653603203512098</v>
       </c>
       <c r="I34" s="2">
+        <v>2.5538086894493901</v>
+      </c>
+      <c r="J34" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43373</v>
       </c>
@@ -3950,13 +4275,16 @@
         <v>6.5031969989889999</v>
       </c>
       <c r="I35" s="2">
+        <v>2.5363534762519602</v>
+      </c>
+      <c r="J35" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43465</v>
       </c>
@@ -3982,13 +4310,16 @@
         <v>5.49543659408587</v>
       </c>
       <c r="I36" s="2">
+        <v>2.57651224019</v>
+      </c>
+      <c r="J36" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43555</v>
       </c>
@@ -4014,13 +4345,16 @@
         <v>5.8296504326354199</v>
       </c>
       <c r="I37" s="2">
+        <v>2.6467890830299599</v>
+      </c>
+      <c r="J37" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43646</v>
       </c>
@@ -4046,13 +4380,16 @@
         <v>5.9921146242931096</v>
       </c>
       <c r="I38" s="2">
+        <v>2.7276044755733202</v>
+      </c>
+      <c r="J38" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43738</v>
       </c>
@@ -4078,13 +4415,16 @@
         <v>5.0044239688100998</v>
       </c>
       <c r="I39" s="2">
+        <v>4.4715748860043796</v>
+      </c>
+      <c r="J39" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43830</v>
       </c>
@@ -4110,13 +4450,16 @@
         <v>3.94996667946522</v>
       </c>
       <c r="I40" s="2">
+        <v>4.5459823832998101</v>
+      </c>
+      <c r="J40" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43921</v>
       </c>
@@ -4142,13 +4485,16 @@
         <v>4.2399922364857296</v>
       </c>
       <c r="I41" s="2">
+        <v>4.6121614884396402</v>
+      </c>
+      <c r="J41" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44012</v>
       </c>
@@ -4174,13 +4520,16 @@
         <v>8.2507613829506408</v>
       </c>
       <c r="I42" s="2">
+        <v>4.65901203275308</v>
+      </c>
+      <c r="J42" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44104</v>
       </c>
@@ -4206,13 +4555,16 @@
         <v>6.1033871096260404</v>
       </c>
       <c r="I43" s="2">
+        <v>4.7599140260019004</v>
+      </c>
+      <c r="J43" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44196</v>
       </c>
@@ -4238,13 +4590,16 @@
         <v>7.4996058869092304</v>
       </c>
       <c r="I44" s="2">
+        <v>4.6006907302915803</v>
+      </c>
+      <c r="J44" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44286</v>
       </c>
@@ -4270,13 +4625,16 @@
         <v>8.3494859609704903</v>
       </c>
       <c r="I45" s="2">
+        <v>4.7967372478485402</v>
+      </c>
+      <c r="J45" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44377</v>
       </c>
@@ -4302,13 +4660,16 @@
         <v>6.5682415291307796</v>
       </c>
       <c r="I46" s="2">
+        <v>4.7541459174826297</v>
+      </c>
+      <c r="J46" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44469</v>
       </c>
@@ -4334,13 +4695,16 @@
         <v>6.9937031109785499</v>
       </c>
       <c r="I47" s="2">
+        <v>4.6766345255588098</v>
+      </c>
+      <c r="J47" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44561</v>
       </c>
@@ -4366,13 +4730,16 @@
         <v>8.1615128171149802</v>
       </c>
       <c r="I48" s="2">
+        <v>4.6122734445196301</v>
+      </c>
+      <c r="J48" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44651</v>
       </c>
@@ -4398,13 +4765,16 @@
         <v>7.78542222330959</v>
       </c>
       <c r="I49" s="2">
+        <v>4.6171448979910901</v>
+      </c>
+      <c r="J49" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44742</v>
       </c>
@@ -4430,13 +4800,16 @@
         <v>6.8382826298980701</v>
       </c>
       <c r="I50" s="2">
+        <v>4.6003704091399502</v>
+      </c>
+      <c r="J50" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44834</v>
       </c>
@@ -4462,13 +4835,16 @@
         <v>6.5124336378794698</v>
       </c>
       <c r="I51" s="2">
+        <v>4.8509230644627204</v>
+      </c>
+      <c r="J51" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44926</v>
       </c>
@@ -4494,13 +4870,16 @@
         <v>9.7807006722512</v>
       </c>
       <c r="I52" s="2">
+        <v>4.7523423081676599</v>
+      </c>
+      <c r="J52" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -4513,8 +4892,9 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -4540,13 +4920,16 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s">
         <v>11</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42916</v>
       </c>
@@ -4572,13 +4955,16 @@
         <v>3.0772326141270501</v>
       </c>
       <c r="I57" s="2">
+        <v>2.3545137349584802</v>
+      </c>
+      <c r="J57" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>2.9763418977359399</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43008</v>
       </c>
@@ -4604,13 +4990,16 @@
         <v>5.4134422040004599</v>
       </c>
       <c r="I58" s="2">
+        <v>2.30709119581695</v>
+      </c>
+      <c r="J58" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43100</v>
       </c>
@@ -4636,13 +5025,16 @@
         <v>4.3811872658425601</v>
       </c>
       <c r="I59" s="2">
+        <v>2.3365704506222098</v>
+      </c>
+      <c r="J59" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43190</v>
       </c>
@@ -4668,13 +5060,16 @@
         <v>5.2208320619300199</v>
       </c>
       <c r="I60" s="2">
+        <v>2.4083073349793498</v>
+      </c>
+      <c r="J60" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43281</v>
       </c>
@@ -4700,13 +5095,16 @@
         <v>6.8866526434022797</v>
       </c>
       <c r="I61" s="2">
+        <v>2.35257996191759</v>
+      </c>
+      <c r="J61" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43373</v>
       </c>
@@ -4732,13 +5130,16 @@
         <v>5.7583720677817203</v>
       </c>
       <c r="I62" s="2">
+        <v>2.3988928398228802</v>
+      </c>
+      <c r="J62" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43465</v>
       </c>
@@ -4764,13 +5165,16 @@
         <v>5.4144352115500904</v>
       </c>
       <c r="I63" s="2">
+        <v>2.3568630507355399</v>
+      </c>
+      <c r="J63" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43555</v>
       </c>
@@ -4796,13 +5200,16 @@
         <v>4.8964127109202797</v>
       </c>
       <c r="I64" s="2">
+        <v>2.3402312764666702</v>
+      </c>
+      <c r="J64" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43646</v>
       </c>
@@ -4828,13 +5235,16 @@
         <v>6.9318015140879403</v>
       </c>
       <c r="I65" s="2">
+        <v>2.3542097554174402</v>
+      </c>
+      <c r="J65" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43738</v>
       </c>
@@ -4860,13 +5270,16 @@
         <v>5.4729514391470504</v>
       </c>
       <c r="I66" s="2">
+        <v>3.9288838240984099</v>
+      </c>
+      <c r="J66" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43830</v>
       </c>
@@ -4892,13 +5305,16 @@
         <v>5.0780984498745401</v>
       </c>
       <c r="I67" s="2">
+        <v>4.3513129397104802</v>
+      </c>
+      <c r="J67" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43921</v>
       </c>
@@ -4924,13 +5340,16 @@
         <v>5.5853145862438698</v>
       </c>
       <c r="I68" s="2">
+        <v>4.2485924976142702</v>
+      </c>
+      <c r="J68" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44012</v>
       </c>
@@ -4956,13 +5375,16 @@
         <v>8.3043736831080306</v>
       </c>
       <c r="I69" s="2">
+        <v>4.3528517150930401</v>
+      </c>
+      <c r="J69" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44104</v>
       </c>
@@ -4988,13 +5410,16 @@
         <v>7.7444514335005996</v>
       </c>
       <c r="I70" s="2">
+        <v>4.3170315695927703</v>
+      </c>
+      <c r="J70" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44196</v>
       </c>
@@ -5020,13 +5445,16 @@
         <v>5.6194886272981002</v>
       </c>
       <c r="I71" s="2">
+        <v>4.3218312146335602</v>
+      </c>
+      <c r="J71" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44286</v>
       </c>
@@ -5052,13 +5480,16 @@
         <v>3.3417416559492499</v>
       </c>
       <c r="I72" s="2">
+        <v>4.3097281909921996</v>
+      </c>
+      <c r="J72" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44377</v>
       </c>
@@ -5084,13 +5515,16 @@
         <v>8.7929058433652791</v>
       </c>
       <c r="I73" s="2">
+        <v>4.2938121110651597</v>
+      </c>
+      <c r="J73" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44469</v>
       </c>
@@ -5116,13 +5550,16 @@
         <v>4.9900822244094396</v>
       </c>
       <c r="I74" s="2">
+        <v>4.3248803655828203</v>
+      </c>
+      <c r="J74" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44561</v>
       </c>
@@ -5148,13 +5585,16 @@
         <v>6.5326373252225096</v>
       </c>
       <c r="I75" s="2">
+        <v>4.3336987388912904</v>
+      </c>
+      <c r="J75" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44651</v>
       </c>
@@ -5180,13 +5620,16 @@
         <v>6.5379568153825103</v>
       </c>
       <c r="I76" s="2">
+        <v>4.3367343073522804</v>
+      </c>
+      <c r="J76" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44742</v>
       </c>
@@ -5212,13 +5655,16 @@
         <v>7.2551148009194204</v>
       </c>
       <c r="I77" s="2">
+        <v>4.3723097696204496</v>
+      </c>
+      <c r="J77" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44834</v>
       </c>
@@ -5244,13 +5690,16 @@
         <v>4.9604117225283897</v>
       </c>
       <c r="I78" s="2">
+        <v>4.3749842989688998</v>
+      </c>
+      <c r="J78" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44926</v>
       </c>
@@ -5276,17 +5725,20 @@
         <v>5.7594998374909396</v>
       </c>
       <c r="I79" s="2">
+        <v>4.3840478383357899</v>
+      </c>
+      <c r="J79" s="2">
         <v>7.0405239459681024</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A55:K55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5294,18 +5746,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E469F8-D5B4-4B35-BEFF-5DE54953C174}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:I76"/>
+      <selection activeCell="B55" sqref="B55:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -5318,8 +5780,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5345,13 +5808,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -5377,13 +5843,16 @@
         <v>5.2017095442380299</v>
       </c>
       <c r="I3" s="2">
+        <v>2.4188752052989302</v>
+      </c>
+      <c r="J3" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -5409,13 +5878,16 @@
         <v>4.2375955472923703</v>
       </c>
       <c r="I4" s="2">
+        <v>2.54843780508227</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -5441,13 +5913,16 @@
         <v>5.7444158497937998</v>
       </c>
       <c r="I5" s="2">
+        <v>2.5534870233187799</v>
+      </c>
+      <c r="J5" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -5473,13 +5948,16 @@
         <v>6.6244455524935297</v>
       </c>
       <c r="I6" s="2">
+        <v>2.5341184147661502</v>
+      </c>
+      <c r="J6" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -5505,13 +5983,16 @@
         <v>7.8707126239894398</v>
       </c>
       <c r="I7" s="2">
+        <v>2.51608338766881</v>
+      </c>
+      <c r="J7" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -5537,13 +6018,16 @@
         <v>7.08271889783106</v>
       </c>
       <c r="I8" s="2">
+        <v>2.58053158552163</v>
+      </c>
+      <c r="J8" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -5569,13 +6053,16 @@
         <v>5.3529505461084703</v>
       </c>
       <c r="I9" s="2">
+        <v>2.5853149894683498</v>
+      </c>
+      <c r="J9" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -5601,13 +6088,16 @@
         <v>5.2720473008975102</v>
       </c>
       <c r="I10" s="2">
+        <v>2.60469195538648</v>
+      </c>
+      <c r="J10" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -5633,13 +6123,16 @@
         <v>5.8139176247160096</v>
       </c>
       <c r="I11" s="2">
+        <v>2.66853577795764</v>
+      </c>
+      <c r="J11" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -5665,13 +6158,16 @@
         <v>5.10040227187997</v>
       </c>
       <c r="I12" s="2">
+        <v>4.3404749840221699</v>
+      </c>
+      <c r="J12" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -5697,13 +6193,16 @@
         <v>4.59466788073457</v>
       </c>
       <c r="I13" s="2">
+        <v>4.5820052421383002</v>
+      </c>
+      <c r="J13" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -5729,13 +6228,16 @@
         <v>6.3311652706564603</v>
       </c>
       <c r="I14" s="2">
+        <v>4.5016736465000804</v>
+      </c>
+      <c r="J14" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -5761,13 +6263,16 @@
         <v>7.3556677152007302</v>
       </c>
       <c r="I15" s="2">
+        <v>4.6349665615152302</v>
+      </c>
+      <c r="J15" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -5793,13 +6298,16 @@
         <v>4.3150994135246599</v>
       </c>
       <c r="I16" s="2">
+        <v>4.6494323155209498</v>
+      </c>
+      <c r="J16" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -5825,13 +6333,16 @@
         <v>5.7772458229080996</v>
       </c>
       <c r="I17" s="2">
+        <v>4.4826122130300101</v>
+      </c>
+      <c r="J17" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -5857,13 +6368,16 @@
         <v>8.2939684169228407</v>
       </c>
       <c r="I18" s="2">
+        <v>4.5688533335778203</v>
+      </c>
+      <c r="J18" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -5889,13 +6403,16 @@
         <v>6.9997619942672502</v>
       </c>
       <c r="I19" s="2">
+        <v>4.71442845603982</v>
+      </c>
+      <c r="J19" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -5921,13 +6438,16 @@
         <v>7.7244314899335302</v>
       </c>
       <c r="I20" s="2">
+        <v>4.5000433818289496</v>
+      </c>
+      <c r="J20" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -5953,13 +6473,16 @@
         <v>10.1313435548955</v>
       </c>
       <c r="I21" s="2">
+        <v>4.6131331845782197</v>
+      </c>
+      <c r="J21" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -5985,13 +6508,16 @@
         <v>9.63542475014901</v>
       </c>
       <c r="I22" s="2">
+        <v>4.5666955516532699</v>
+      </c>
+      <c r="J22" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -6017,13 +6543,16 @@
         <v>7.7289781545384901</v>
       </c>
       <c r="I23" s="2">
+        <v>4.6457567905122001</v>
+      </c>
+      <c r="J23" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -6049,16 +6578,19 @@
         <v>4.5135696874795803</v>
       </c>
       <c r="I24" s="2">
+        <v>4.7571176448557004</v>
+      </c>
+      <c r="J24" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -6071,8 +6603,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -6098,13 +6631,16 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42916</v>
       </c>
@@ -6130,13 +6666,16 @@
         <v>4.7226018323761201</v>
       </c>
       <c r="I29" s="2">
+        <v>2.4125207484268598</v>
+      </c>
+      <c r="J29" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43008</v>
       </c>
@@ -6162,13 +6701,16 @@
         <v>4.03703027679218</v>
       </c>
       <c r="I30" s="2">
+        <v>2.5481899758722699</v>
+      </c>
+      <c r="J30" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43100</v>
       </c>
@@ -6194,13 +6736,16 @@
         <v>5.8339827914406097</v>
       </c>
       <c r="I31" s="2">
+        <v>2.5067882356142799</v>
+      </c>
+      <c r="J31" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43190</v>
       </c>
@@ -6226,13 +6771,16 @@
         <v>6.2222832582834897</v>
       </c>
       <c r="I32" s="2">
+        <v>2.53398574222699</v>
+      </c>
+      <c r="J32" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43281</v>
       </c>
@@ -6258,13 +6806,16 @@
         <v>7.3594679909160696</v>
       </c>
       <c r="I33" s="2">
+        <v>2.5463552473344699</v>
+      </c>
+      <c r="J33" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43373</v>
       </c>
@@ -6290,13 +6841,16 @@
         <v>6.3220629696123503</v>
       </c>
       <c r="I34" s="2">
+        <v>2.5340481544526701</v>
+      </c>
+      <c r="J34" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43465</v>
       </c>
@@ -6322,13 +6876,16 @@
         <v>5.2899233537446504</v>
       </c>
       <c r="I35" s="2">
+        <v>2.5618267785598401</v>
+      </c>
+      <c r="J35" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43555</v>
       </c>
@@ -6354,13 +6911,16 @@
         <v>5.9252668953532597</v>
       </c>
       <c r="I36" s="2">
+        <v>2.66347823776736</v>
+      </c>
+      <c r="J36" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43646</v>
       </c>
@@ -6386,13 +6946,16 @@
         <v>5.7198796579031201</v>
       </c>
       <c r="I37" s="2">
+        <v>2.73912829028419</v>
+      </c>
+      <c r="J37" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43738</v>
       </c>
@@ -6418,13 +6981,16 @@
         <v>6.5054248213731096</v>
       </c>
       <c r="I38" s="2">
+        <v>4.3836918163240197</v>
+      </c>
+      <c r="J38" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43830</v>
       </c>
@@ -6450,13 +7016,16 @@
         <v>4.6760475875566403</v>
       </c>
       <c r="I39" s="2">
+        <v>4.5320745980471999</v>
+      </c>
+      <c r="J39" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43921</v>
       </c>
@@ -6482,13 +7051,16 @@
         <v>5.7430247842206299</v>
       </c>
       <c r="I40" s="2">
+        <v>4.6040998832578097</v>
+      </c>
+      <c r="J40" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44012</v>
       </c>
@@ -6514,13 +7086,16 @@
         <v>6.8170151313818899</v>
       </c>
       <c r="I41" s="2">
+        <v>4.6139186895513804</v>
+      </c>
+      <c r="J41" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44104</v>
       </c>
@@ -6546,13 +7121,16 @@
         <v>3.6531039031150501</v>
       </c>
       <c r="I42" s="2">
+        <v>4.6992221517027302</v>
+      </c>
+      <c r="J42" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44196</v>
       </c>
@@ -6578,13 +7156,16 @@
         <v>5.9705729020339096</v>
       </c>
       <c r="I43" s="2">
+        <v>4.5493756919046398</v>
+      </c>
+      <c r="J43" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44286</v>
       </c>
@@ -6610,13 +7191,16 @@
         <v>8.2368159923196096</v>
       </c>
       <c r="I44" s="2">
+        <v>4.7761966302886201</v>
+      </c>
+      <c r="J44" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44377</v>
       </c>
@@ -6642,13 +7226,16 @@
         <v>6.3796869233768998</v>
       </c>
       <c r="I45" s="2">
+        <v>4.74081986454358</v>
+      </c>
+      <c r="J45" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -6674,13 +7261,16 @@
         <v>6.9340559789263301</v>
       </c>
       <c r="I46" s="2">
+        <v>4.61624290864673</v>
+      </c>
+      <c r="J46" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44561</v>
       </c>
@@ -6706,13 +7296,16 @@
         <v>9.3409436065987101</v>
       </c>
       <c r="I47" s="2">
+        <v>4.6683080787639799</v>
+      </c>
+      <c r="J47" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44651</v>
       </c>
@@ -6738,13 +7331,16 @@
         <v>9.2464360721758201</v>
       </c>
       <c r="I48" s="2">
+        <v>4.6396172231785497</v>
+      </c>
+      <c r="J48" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44742</v>
       </c>
@@ -6770,13 +7366,16 @@
         <v>6.8589995998845001</v>
       </c>
       <c r="I49" s="2">
+        <v>4.6674963920646597</v>
+      </c>
+      <c r="J49" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44834</v>
       </c>
@@ -6802,19 +7401,22 @@
         <v>3.97999455579001</v>
       </c>
       <c r="I50" s="2">
+        <v>4.8518817453154197</v>
+      </c>
+      <c r="J50" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -6827,8 +7429,9 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6854,13 +7457,16 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
         <v>11</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42916</v>
       </c>
@@ -6886,13 +7492,16 @@
         <v>3.6181031963543901</v>
       </c>
       <c r="I55" s="2">
+        <v>2.35072666064965</v>
+      </c>
+      <c r="J55" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>4.5547073791348502</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43008</v>
       </c>
@@ -6918,13 +7527,16 @@
         <v>5.20693458074361</v>
       </c>
       <c r="I56" s="2">
+        <v>2.3291970343064898</v>
+      </c>
+      <c r="J56" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43100</v>
       </c>
@@ -6950,13 +7562,16 @@
         <v>4.7575177524576802</v>
       </c>
       <c r="I57" s="2">
+        <v>2.34530480901303</v>
+      </c>
+      <c r="J57" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43190</v>
       </c>
@@ -6982,13 +7597,16 @@
         <v>5.0732334450345498</v>
       </c>
       <c r="I58" s="2">
+        <v>2.3978869236095601</v>
+      </c>
+      <c r="J58" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43281</v>
       </c>
@@ -7014,13 +7632,16 @@
         <v>5.8631057982167203</v>
       </c>
       <c r="I59" s="2">
+        <v>2.3553899866647701</v>
+      </c>
+      <c r="J59" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43373</v>
       </c>
@@ -7046,13 +7667,16 @@
         <v>5.9642299525725502</v>
       </c>
       <c r="I60" s="2">
+        <v>2.3957599576691102</v>
+      </c>
+      <c r="J60" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43465</v>
       </c>
@@ -7078,13 +7702,16 @@
         <v>5.5440920451886297</v>
       </c>
       <c r="I61" s="2">
+        <v>2.3694236242324802</v>
+      </c>
+      <c r="J61" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43555</v>
       </c>
@@ -7110,13 +7737,16 @@
         <v>4.4718262969079801</v>
       </c>
       <c r="I62" s="2">
+        <v>2.3438405210263902</v>
+      </c>
+      <c r="J62" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43646</v>
       </c>
@@ -7142,13 +7772,16 @@
         <v>6.5816544289272096</v>
       </c>
       <c r="I63" s="2">
+        <v>2.3782265285056798</v>
+      </c>
+      <c r="J63" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43738</v>
       </c>
@@ -7174,13 +7807,16 @@
         <v>7.1713052803004897</v>
       </c>
       <c r="I64" s="2">
+        <v>3.8688493761826601</v>
+      </c>
+      <c r="J64" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43830</v>
       </c>
@@ -7206,13 +7842,16 @@
         <v>5.7104645109688699</v>
       </c>
       <c r="I65" s="2">
+        <v>4.3160254641765201</v>
+      </c>
+      <c r="J65" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43921</v>
       </c>
@@ -7238,13 +7877,16 @@
         <v>5.7775845868145996</v>
       </c>
       <c r="I66" s="2">
+        <v>4.2758557916592999</v>
+      </c>
+      <c r="J66" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44012</v>
       </c>
@@ -7270,13 +7912,16 @@
         <v>8.1525698187913207</v>
       </c>
       <c r="I67" s="2">
+        <v>4.3148936702235696</v>
+      </c>
+      <c r="J67" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44104</v>
       </c>
@@ -7302,13 +7947,16 @@
         <v>7.5059172028760397</v>
       </c>
       <c r="I68" s="2">
+        <v>4.3050491988897397</v>
+      </c>
+      <c r="J68" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44196</v>
       </c>
@@ -7334,13 +7982,16 @@
         <v>5.6942937054492004</v>
       </c>
       <c r="I69" s="2">
+        <v>4.2919123633090903</v>
+      </c>
+      <c r="J69" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44286</v>
       </c>
@@ -7366,13 +8017,16 @@
         <v>2.3984897063278101</v>
       </c>
       <c r="I70" s="2">
+        <v>4.2971670639337196</v>
+      </c>
+      <c r="J70" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44377</v>
       </c>
@@ -7398,13 +8052,16 @@
         <v>7.2151383247355501</v>
       </c>
       <c r="I71" s="2">
+        <v>4.2682722468659602</v>
+      </c>
+      <c r="J71" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44469</v>
       </c>
@@ -7430,13 +8087,16 @@
         <v>5.7638822900768103</v>
       </c>
       <c r="I72" s="2">
+        <v>4.3057287819323102</v>
+      </c>
+      <c r="J72" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44561</v>
       </c>
@@ -7462,13 +8122,16 @@
         <v>7.3102502066011104</v>
       </c>
       <c r="I73" s="2">
+        <v>4.31193195052973</v>
+      </c>
+      <c r="J73" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44651</v>
       </c>
@@ -7494,13 +8157,16 @@
         <v>7.7561392119294501</v>
       </c>
       <c r="I74" s="2">
+        <v>4.3449276062575004</v>
+      </c>
+      <c r="J74" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44742</v>
       </c>
@@ -7526,13 +8192,16 @@
         <v>7.0876278376396504</v>
       </c>
       <c r="I75" s="2">
+        <v>4.3685675558841099</v>
+      </c>
+      <c r="J75" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44834</v>
       </c>
@@ -7558,26 +8227,29 @@
         <v>4.0029730632690796</v>
       </c>
       <c r="I76" s="2">
+        <v>4.3659915141490204</v>
+      </c>
+      <c r="J76" s="2">
         <v>7.2784150156412819</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I79" s="2"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A53:K53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7585,10 +8257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B92-69DE-40E7-A57B-A7A3471E3AAC}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:I73"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7601,11 +8273,12 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7618,8 +8291,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7645,13 +8319,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -7677,13 +8354,16 @@
         <v>4.2302130959959703</v>
       </c>
       <c r="I3" s="2">
+        <v>2.4157921842463601</v>
+      </c>
+      <c r="J3" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -7709,13 +8389,16 @@
         <v>4.1035240807295201</v>
       </c>
       <c r="I4" s="2">
+        <v>2.55043811290644</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -7741,13 +8424,16 @@
         <v>5.6441538410704304</v>
       </c>
       <c r="I5" s="2">
+        <v>2.5493297466604199</v>
+      </c>
+      <c r="J5" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -7773,13 +8459,16 @@
         <v>5.9195720024190601</v>
       </c>
       <c r="I6" s="2">
+        <v>2.5700785521750702</v>
+      </c>
+      <c r="J6" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -7805,13 +8494,16 @@
         <v>7.3686678911421097</v>
       </c>
       <c r="I7" s="2">
+        <v>2.5209534638254198</v>
+      </c>
+      <c r="J7" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -7837,13 +8529,16 @@
         <v>6.55833878078389</v>
       </c>
       <c r="I8" s="2">
+        <v>2.5854306927456498</v>
+      </c>
+      <c r="J8" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -7869,13 +8564,16 @@
         <v>4.6940905894132801</v>
       </c>
       <c r="I9" s="2">
+        <v>2.5848281419727801</v>
+      </c>
+      <c r="J9" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -7901,13 +8599,16 @@
         <v>5.3023662648223597</v>
       </c>
       <c r="I10" s="2">
+        <v>2.6057903216268601</v>
+      </c>
+      <c r="J10" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -7933,13 +8634,16 @@
         <v>5.8042367606853498</v>
       </c>
       <c r="I11" s="2">
+        <v>2.6818890906969801</v>
+      </c>
+      <c r="J11" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -7965,13 +8669,16 @@
         <v>5.7043271879726296</v>
       </c>
       <c r="I12" s="2">
+        <v>4.3081188110105204</v>
+      </c>
+      <c r="J12" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -7997,13 +8704,16 @@
         <v>5.60348994626876</v>
       </c>
       <c r="I13" s="2">
+        <v>4.5456078351865896</v>
+      </c>
+      <c r="J13" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -8029,13 +8739,16 @@
         <v>6.5688963740316497</v>
       </c>
       <c r="I14" s="2">
+        <v>4.47855771977797</v>
+      </c>
+      <c r="J14" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -8061,13 +8774,16 @@
         <v>6.6170729852768497</v>
       </c>
       <c r="I15" s="2">
+        <v>4.6158139783610599</v>
+      </c>
+      <c r="J15" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -8093,13 +8809,16 @@
         <v>3.7770396273251401</v>
       </c>
       <c r="I16" s="2">
+        <v>4.6563802803372996</v>
+      </c>
+      <c r="J16" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -8125,13 +8844,16 @@
         <v>5.9444887789343399</v>
       </c>
       <c r="I17" s="2">
+        <v>4.4489099892996604</v>
+      </c>
+      <c r="J17" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -8157,13 +8879,16 @@
         <v>7.8453478026869297</v>
       </c>
       <c r="I18" s="2">
+        <v>4.5437084487806896</v>
+      </c>
+      <c r="J18" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -8189,13 +8914,16 @@
         <v>7.3479716685342202</v>
       </c>
       <c r="I19" s="2">
+        <v>4.7028762307996104</v>
+      </c>
+      <c r="J19" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -8221,13 +8949,16 @@
         <v>7.6514782231094403</v>
       </c>
       <c r="I20" s="2">
+        <v>4.4941907767962999</v>
+      </c>
+      <c r="J20" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -8253,13 +8984,16 @@
         <v>9.8541198816222604</v>
       </c>
       <c r="I21" s="2">
+        <v>4.6019093567574902</v>
+      </c>
+      <c r="J21" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -8285,13 +9019,16 @@
         <v>9.6467418309927009</v>
       </c>
       <c r="I22" s="2">
+        <v>4.5732275126398498</v>
+      </c>
+      <c r="J22" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -8317,19 +9054,22 @@
         <v>6.5668960441366702</v>
       </c>
       <c r="I23" s="2">
+        <v>4.6182390407319502</v>
+      </c>
+      <c r="J23" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -8342,8 +9082,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -8369,13 +9110,16 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42916</v>
       </c>
@@ -8401,13 +9145,16 @@
         <v>4.0622849969458503</v>
       </c>
       <c r="I28" s="2">
+        <v>2.4364321354768501</v>
+      </c>
+      <c r="J28" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43008</v>
       </c>
@@ -8433,13 +9180,16 @@
         <v>4.0221761687638997</v>
       </c>
       <c r="I29" s="2">
+        <v>2.5597453549601101</v>
+      </c>
+      <c r="J29" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43100</v>
       </c>
@@ -8465,13 +9215,16 @@
         <v>5.7476812423974</v>
       </c>
       <c r="I30" s="2">
+        <v>2.5196754834012198</v>
+      </c>
+      <c r="J30" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43190</v>
       </c>
@@ -8497,13 +9250,16 @@
         <v>5.56975228867109</v>
       </c>
       <c r="I31" s="2">
+        <v>2.5581259675717698</v>
+      </c>
+      <c r="J31" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43281</v>
       </c>
@@ -8529,13 +9285,16 @@
         <v>8.0175582652839505</v>
       </c>
       <c r="I32" s="2">
+        <v>2.5470223474340301</v>
+      </c>
+      <c r="J32" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43373</v>
       </c>
@@ -8561,13 +9320,16 @@
         <v>5.6251162669291999</v>
       </c>
       <c r="I33" s="2">
+        <v>2.5342597277782102</v>
+      </c>
+      <c r="J33" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43465</v>
       </c>
@@ -8593,13 +9355,16 @@
         <v>4.6924287445765298</v>
       </c>
       <c r="I34" s="2">
+        <v>2.5963534334984999</v>
+      </c>
+      <c r="J34" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43555</v>
       </c>
@@ -8625,13 +9390,16 @@
         <v>5.9066190012848301</v>
       </c>
       <c r="I35" s="2">
+        <v>2.6270736596515798</v>
+      </c>
+      <c r="J35" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43646</v>
       </c>
@@ -8657,13 +9425,16 @@
         <v>5.3220246371930298</v>
       </c>
       <c r="I36" s="2">
+        <v>2.6919007640460499</v>
+      </c>
+      <c r="J36" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43738</v>
       </c>
@@ -8689,13 +9460,16 @@
         <v>3.89409863245141</v>
       </c>
       <c r="I37" s="2">
+        <v>4.3548302201588296</v>
+      </c>
+      <c r="J37" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43830</v>
       </c>
@@ -8721,13 +9495,16 @@
         <v>3.69822995462627</v>
       </c>
       <c r="I38" s="2">
+        <v>4.5147706231690901</v>
+      </c>
+      <c r="J38" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43921</v>
       </c>
@@ -8753,13 +9530,16 @@
         <v>4.5793287159650902</v>
       </c>
       <c r="I39" s="2">
+        <v>4.5828320803907898</v>
+      </c>
+      <c r="J39" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44012</v>
       </c>
@@ -8785,13 +9565,16 @@
         <v>6.9312703999352703</v>
       </c>
       <c r="I40" s="2">
+        <v>4.59577106854079</v>
+      </c>
+      <c r="J40" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44104</v>
       </c>
@@ -8817,13 +9600,16 @@
         <v>3.54155258619629</v>
       </c>
       <c r="I41" s="2">
+        <v>4.6471447011680498</v>
+      </c>
+      <c r="J41" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44196</v>
       </c>
@@ -8849,13 +9635,16 @@
         <v>7.1247342883797096</v>
       </c>
       <c r="I42" s="2">
+        <v>4.56241622947178</v>
+      </c>
+      <c r="J42" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44286</v>
       </c>
@@ -8881,13 +9670,16 @@
         <v>6.6825634698059098</v>
       </c>
       <c r="I43" s="2">
+        <v>4.7531571848269802</v>
+      </c>
+      <c r="J43" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44377</v>
       </c>
@@ -8913,13 +9705,16 @@
         <v>7.2922279517637199</v>
       </c>
       <c r="I44" s="2">
+        <v>4.7231028366886196</v>
+      </c>
+      <c r="J44" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44469</v>
       </c>
@@ -8945,13 +9740,16 @@
         <v>6.9020521908293304</v>
       </c>
       <c r="I45" s="2">
+        <v>4.6233340534960599</v>
+      </c>
+      <c r="J45" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44561</v>
       </c>
@@ -8977,13 +9775,16 @@
         <v>8.2184023278727096</v>
       </c>
       <c r="I46" s="2">
+        <v>4.7309748018703104</v>
+      </c>
+      <c r="J46" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44651</v>
       </c>
@@ -9009,13 +9810,16 @@
         <v>8.62798362059557</v>
       </c>
       <c r="I47" s="2">
+        <v>4.6563594575208898</v>
+      </c>
+      <c r="J47" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44742</v>
       </c>
@@ -9041,19 +9845,22 @@
         <v>6.2284573845510796</v>
       </c>
       <c r="I48" s="2">
+        <v>4.7106873726987502</v>
+      </c>
+      <c r="J48" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>9</v>
       </c>
@@ -9066,8 +9873,9 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -9093,13 +9901,16 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42916</v>
       </c>
@@ -9125,13 +9936,16 @@
         <v>3.2901627308107502</v>
       </c>
       <c r="I53" s="2">
+        <v>2.36433603830254</v>
+      </c>
+      <c r="J53" s="2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>4.5941807044410403</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43008</v>
       </c>
@@ -9157,13 +9971,16 @@
         <v>5.1893526055477404</v>
       </c>
       <c r="I54" s="2">
+        <v>2.3521836529851501</v>
+      </c>
+      <c r="J54" s="2">
         <v>2.2020725388601115</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>4.7908745247148001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43100</v>
       </c>
@@ -9189,13 +10006,16 @@
         <v>4.8413941921855903</v>
       </c>
       <c r="I55" s="2">
+        <v>2.3664708273075599</v>
+      </c>
+      <c r="J55" s="2">
         <v>2.9763418977359457</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>3.85375494071147</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43190</v>
       </c>
@@ -9221,13 +10041,16 @@
         <v>5.03970268727541</v>
       </c>
       <c r="I56" s="2">
+        <v>2.4022261499965998</v>
+      </c>
+      <c r="J56" s="2">
         <v>4.5547073791348591</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>2.60403991238744</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43281</v>
       </c>
@@ -9253,13 +10076,16 @@
         <v>6.1893547578305697</v>
       </c>
       <c r="I57" s="2">
+        <v>2.3313107638367998</v>
+      </c>
+      <c r="J57" s="2">
         <v>4.5941807044410421</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>2.4646168862860001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43373</v>
       </c>
@@ -9285,13 +10111,16 @@
         <v>6.1171343022100899</v>
       </c>
       <c r="I58" s="2">
+        <v>2.40363341247512</v>
+      </c>
+      <c r="J58" s="2">
         <v>4.7908745247148055</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>3.0720851475568498</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43465</v>
       </c>
@@ -9317,13 +10146,16 @@
         <v>4.60009857828351</v>
       </c>
       <c r="I59" s="2">
+        <v>2.3914872328730001</v>
+      </c>
+      <c r="J59" s="2">
         <v>3.8537549407114735</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>3.4728829686012999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43555</v>
       </c>
@@ -9349,13 +10181,16 @@
         <v>4.2901591094578402</v>
       </c>
       <c r="I60" s="2">
+        <v>2.3637395207196201</v>
+      </c>
+      <c r="J60" s="2">
         <v>2.6040399123874458</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>5.83491461100569</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43646</v>
       </c>
@@ -9381,13 +10216,16 @@
         <v>6.5658597742330196</v>
       </c>
       <c r="I61" s="2">
+        <v>2.4121402015106401</v>
+      </c>
+      <c r="J61" s="2">
         <v>2.4646168862860085</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>6.66825434627291</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43738</v>
       </c>
@@ -9413,13 +10251,16 @@
         <v>6.9317902595222396</v>
       </c>
       <c r="I62" s="2">
+        <v>3.8433501248622601</v>
+      </c>
+      <c r="J62" s="2">
         <v>3.0720851475568578</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>6.57122741140578</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43830</v>
       </c>
@@ -9445,13 +10286,16 @@
         <v>5.5039288364923902</v>
       </c>
       <c r="I63" s="2">
+        <v>4.2867920845439702</v>
+      </c>
+      <c r="J63" s="2">
         <v>3.4728829686013096</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>6.8965517241379199</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -9477,13 +10321,16 @@
         <v>6.4291396687713798</v>
       </c>
       <c r="I64" s="2">
+        <v>4.2402476510568503</v>
+      </c>
+      <c r="J64" s="2">
         <v>5.8349146110056926</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>6.3648588077095596</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44012</v>
       </c>
@@ -9509,13 +10356,16 @@
         <v>7.3993936739830097</v>
       </c>
       <c r="I65" s="2">
+        <v>4.3245304707946799</v>
+      </c>
+      <c r="J65" s="2">
         <v>6.6682543462729171</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>4.8671578477338802</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44104</v>
       </c>
@@ -9541,13 +10391,16 @@
         <v>6.12677382624745</v>
       </c>
       <c r="I66" s="2">
+        <v>4.2605689525532302</v>
+      </c>
+      <c r="J66" s="2">
         <v>6.5712274114057889</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>5.5934816119797404</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44196</v>
       </c>
@@ -9573,13 +10426,16 @@
         <v>5.33839164553447</v>
       </c>
       <c r="I67" s="2">
+        <v>4.3035163491971602</v>
+      </c>
+      <c r="J67" s="2">
         <v>6.8965517241379226</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>5.0752688172042797</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44286</v>
       </c>
@@ -9605,13 +10461,16 @@
         <v>2.6569585818212098</v>
       </c>
       <c r="I68" s="2">
+        <v>4.2633835695382603</v>
+      </c>
+      <c r="J68" s="2">
         <v>6.3648588077095614</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>4.9936788874841804</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44377</v>
       </c>
@@ -9637,13 +10496,16 @@
         <v>7.8681599849874004</v>
       </c>
       <c r="I69" s="2">
+        <v>4.2299308424174002</v>
+      </c>
+      <c r="J69" s="2">
         <v>4.8671578477338828</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>6.3444751969341899</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44469</v>
       </c>
@@ -9669,13 +10531,16 @@
         <v>6.1515539151303704</v>
       </c>
       <c r="I70" s="2">
+        <v>4.2862573698677302</v>
+      </c>
+      <c r="J70" s="2">
         <v>5.5934816119797448</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>7.2784150156412801</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44561</v>
       </c>
@@ -9701,13 +10566,16 @@
         <v>8.3154094115319701</v>
       </c>
       <c r="I71" s="2">
+        <v>4.3256879856386101</v>
+      </c>
+      <c r="J71" s="2">
         <v>5.0752688172042815</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>7.0405239459680997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44651</v>
       </c>
@@ -9733,13 +10601,16 @@
         <v>7.0117691972066201</v>
       </c>
       <c r="I72" s="2">
+        <v>4.3371328173906196</v>
+      </c>
+      <c r="J72" s="2">
         <v>4.9936788874841875</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>6.1408789885611004</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44742</v>
       </c>
@@ -9765,35 +10636,38 @@
         <v>6.5267837497753201</v>
       </c>
       <c r="I73" s="2">
+        <v>4.36759981042142</v>
+      </c>
+      <c r="J73" s="2">
         <v>6.3444751969341961</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>6.20620620620622</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I79" s="2"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A51:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9801,27 +10675,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9AA19C-CDB1-47B9-99CD-80199858ACE6}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -9850,10 +10725,13 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9882,10 +10760,13 @@
         <v>2.3834616576899941</v>
       </c>
       <c r="J2" s="2">
+        <v>1.495858045470793</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.94145294815014036</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9914,10 +10795,13 @@
         <v>2.0656540724643921</v>
       </c>
       <c r="J3" s="2">
+        <v>1.5489711849467518</v>
+      </c>
+      <c r="K3" s="2">
         <v>1.4737878987086315</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9946,10 +10830,13 @@
         <v>2.2481258296230093</v>
       </c>
       <c r="J4" s="2">
+        <v>1.7478837616579694</v>
+      </c>
+      <c r="K4" s="2">
         <v>1.8266472957840461</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9978,10 +10865,13 @@
         <v>2.1013195570523102</v>
       </c>
       <c r="J5" s="2">
+        <v>1.9015060995199047</v>
+      </c>
+      <c r="K5" s="2">
         <v>2.0923273156295235</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10010,10 +10900,13 @@
         <v>2.3715147348239451</v>
       </c>
       <c r="J6" s="2">
+        <v>1.4742409736469086</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.94145294815014036</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -10042,10 +10935,13 @@
         <v>2.1915203235297347</v>
       </c>
       <c r="J7" s="2">
+        <v>1.5407268346694736</v>
+      </c>
+      <c r="K7" s="2">
         <v>1.4737878987086315</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10074,10 +10970,13 @@
         <v>2.0124840607159182</v>
       </c>
       <c r="J8" s="2">
+        <v>1.7159745550304382</v>
+      </c>
+      <c r="K8" s="2">
         <v>1.8266472957840461</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -10106,10 +11005,13 @@
         <v>2.1672408232743439</v>
       </c>
       <c r="J9" s="2">
+        <v>1.8655442163781275</v>
+      </c>
+      <c r="K9" s="2">
         <v>2.0923273156295235</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10138,10 +11040,13 @@
         <v>2.022881340111566</v>
       </c>
       <c r="J10" s="2">
+        <v>1.7204817383750883</v>
+      </c>
+      <c r="K10" s="2">
         <v>0.94145294815014036</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -10170,10 +11075,13 @@
         <v>1.7854077709068512</v>
       </c>
       <c r="J11" s="2">
+        <v>1.8012560953199204</v>
+      </c>
+      <c r="K11" s="2">
         <v>1.4737878987086315</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10202,10 +11110,13 @@
         <v>1.7108218858669606</v>
       </c>
       <c r="J12" s="2">
+        <v>1.9743435718270841</v>
+      </c>
+      <c r="K12" s="2">
         <v>1.8266472957840461</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10234,6 +11145,9 @@
         <v>1.6323826031517494</v>
       </c>
       <c r="J13" s="2">
+        <v>2.1197992014463396</v>
+      </c>
+      <c r="K13" s="2">
         <v>2.0923273156295235</v>
       </c>
     </row>
@@ -10244,15 +11158,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAB5E2-FEDA-4476-965C-354935EAC28E}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:R2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -10278,10 +11192,13 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.5941807044410403</v>
       </c>
@@ -10307,42 +11224,49 @@
         <v>3.2901627308107502</v>
       </c>
       <c r="I2">
+        <v>2.36433603830254</v>
+      </c>
+      <c r="J2">
         <v>3.5685963521014941</v>
       </c>
-      <c r="K2" cm="1">
-        <f t="array" ref="K2">SQRT(AVERAGE(($A$2:$A$22-B2:B22)^2))</f>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">SQRT(AVERAGE(($A$2:$A$22-B2:B22)^2))</f>
         <v>1.4254440551908145</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" ref="L2">SQRT(AVERAGE(($A$2:$A$22-C2:C22)^2))</f>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">SQRT(AVERAGE(($A$2:$A$22-C2:C22)^2))</f>
         <v>1.1394990121248321</v>
       </c>
-      <c r="M2" cm="1">
-        <f t="array" ref="M2">SQRT(AVERAGE(($A$2:$A$22-D2:D22)^2))</f>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2">SQRT(AVERAGE(($A$2:$A$22-D2:D22)^2))</f>
         <v>1.0359448659184327</v>
       </c>
-      <c r="N2" cm="1">
-        <f t="array" ref="N2">SQRT(AVERAGE(($A$2:$A$22-E2:E22)^2))</f>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">SQRT(AVERAGE(($A$2:$A$22-E2:E22)^2))</f>
         <v>0.88837967559776099</v>
       </c>
-      <c r="O2" cm="1">
-        <f t="array" ref="O2">SQRT(AVERAGE(($A$2:$A$22-F2:F22)^2))</f>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2">SQRT(AVERAGE(($A$2:$A$22-F2:F22)^2))</f>
         <v>0.87030245442186427</v>
       </c>
-      <c r="P2" cm="1">
-        <f t="array" ref="P2">SQRT(AVERAGE(($A$2:$A$22-G2:G22)^2))</f>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">SQRT(AVERAGE(($A$2:$A$22-G2:G22)^2))</f>
         <v>2.3269160972388994</v>
       </c>
-      <c r="Q2" cm="1">
-        <f t="array" ref="Q2">SQRT(AVERAGE(($A$2:$A$22-H2:H22)^2))</f>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">SQRT(AVERAGE(($A$2:$A$22-H2:H22)^2))</f>
         <v>1.6323826031517494</v>
       </c>
-      <c r="R2" cm="1">
-        <f t="array" ref="R2">SQRT(AVERAGE(($A$2:$A$22-I2:I22)^2))</f>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">SQRT(AVERAGE(($A$2:$A$22-I2:I22)^2))</f>
+        <v>2.1197992014463396</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">SQRT(AVERAGE(($A$2:$A$22-J2:J22)^2))</f>
         <v>2.0923273156295235</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.7908745247148001</v>
       </c>
@@ -10368,10 +11292,13 @@
         <v>5.1893526055477404</v>
       </c>
       <c r="I3">
+        <v>2.3521836529851501</v>
+      </c>
+      <c r="J3">
         <v>2.2020725388601115</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.85375494071147</v>
       </c>
@@ -10397,10 +11324,13 @@
         <v>4.8413941921855903</v>
       </c>
       <c r="I4">
+        <v>2.3664708273075599</v>
+      </c>
+      <c r="J4">
         <v>2.9763418977359457</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.60403991238744</v>
       </c>
@@ -10426,10 +11356,13 @@
         <v>5.03970268727541</v>
       </c>
       <c r="I5">
+        <v>2.4022261499965998</v>
+      </c>
+      <c r="J5">
         <v>4.5547073791348591</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.4646168862860001</v>
       </c>
@@ -10455,10 +11388,13 @@
         <v>6.1893547578305697</v>
       </c>
       <c r="I6">
+        <v>2.3313107638367998</v>
+      </c>
+      <c r="J6">
         <v>4.5941807044410421</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.0720851475568498</v>
       </c>
@@ -10484,10 +11420,13 @@
         <v>6.1171343022100899</v>
       </c>
       <c r="I7">
+        <v>2.40363341247512</v>
+      </c>
+      <c r="J7">
         <v>4.7908745247148055</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.4728829686012999</v>
       </c>
@@ -10513,10 +11452,13 @@
         <v>4.60009857828351</v>
       </c>
       <c r="I8">
+        <v>2.3914872328730001</v>
+      </c>
+      <c r="J8">
         <v>3.8537549407114735</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.83491461100569</v>
       </c>
@@ -10542,10 +11484,13 @@
         <v>4.2901591094578402</v>
       </c>
       <c r="I9">
+        <v>2.3637395207196201</v>
+      </c>
+      <c r="J9">
         <v>2.6040399123874458</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6.66825434627291</v>
       </c>
@@ -10571,10 +11516,13 @@
         <v>6.5658597742330196</v>
       </c>
       <c r="I10">
+        <v>2.4121402015106401</v>
+      </c>
+      <c r="J10">
         <v>2.4646168862860085</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6.57122741140578</v>
       </c>
@@ -10600,10 +11548,13 @@
         <v>6.9317902595222396</v>
       </c>
       <c r="I11">
+        <v>3.8433501248622601</v>
+      </c>
+      <c r="J11">
         <v>3.0720851475568578</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6.8965517241379199</v>
       </c>
@@ -10629,10 +11580,13 @@
         <v>5.5039288364923902</v>
       </c>
       <c r="I12">
+        <v>4.2867920845439702</v>
+      </c>
+      <c r="J12">
         <v>3.4728829686013096</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6.3648588077095596</v>
       </c>
@@ -10658,10 +11612,13 @@
         <v>6.4291396687713798</v>
       </c>
       <c r="I13">
+        <v>4.2402476510568503</v>
+      </c>
+      <c r="J13">
         <v>5.8349146110056926</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.8671578477338802</v>
       </c>
@@ -10687,10 +11644,13 @@
         <v>7.3993936739830097</v>
       </c>
       <c r="I14">
+        <v>4.3245304707946799</v>
+      </c>
+      <c r="J14">
         <v>6.6682543462729171</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.5934816119797404</v>
       </c>
@@ -10716,10 +11676,13 @@
         <v>6.12677382624745</v>
       </c>
       <c r="I15">
+        <v>4.2605689525532302</v>
+      </c>
+      <c r="J15">
         <v>6.5712274114057889</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.0752688172042797</v>
       </c>
@@ -10745,10 +11708,13 @@
         <v>5.33839164553447</v>
       </c>
       <c r="I16">
+        <v>4.3035163491971602</v>
+      </c>
+      <c r="J16">
         <v>6.8965517241379226</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.9936788874841804</v>
       </c>
@@ -10774,10 +11740,13 @@
         <v>2.6569585818212098</v>
       </c>
       <c r="I17">
+        <v>4.2633835695382603</v>
+      </c>
+      <c r="J17">
         <v>6.3648588077095614</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.3444751969341899</v>
       </c>
@@ -10803,10 +11772,13 @@
         <v>7.8681599849874004</v>
       </c>
       <c r="I18">
+        <v>4.2299308424174002</v>
+      </c>
+      <c r="J18">
         <v>4.8671578477338828</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.2784150156412801</v>
       </c>
@@ -10832,10 +11804,13 @@
         <v>6.1515539151303704</v>
       </c>
       <c r="I19">
+        <v>4.2862573698677302</v>
+      </c>
+      <c r="J19">
         <v>5.5934816119797448</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.0405239459680997</v>
       </c>
@@ -10861,10 +11836,13 @@
         <v>8.3154094115319701</v>
       </c>
       <c r="I20">
+        <v>4.3256879856386101</v>
+      </c>
+      <c r="J20">
         <v>5.0752688172042815</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.1408789885611004</v>
       </c>
@@ -10890,10 +11868,13 @@
         <v>7.0117691972066201</v>
       </c>
       <c r="I21">
+        <v>4.3371328173906196</v>
+      </c>
+      <c r="J21">
         <v>4.9936788874841875</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.20620620620622</v>
       </c>
@@ -10919,6 +11900,9 @@
         <v>6.5267837497753201</v>
       </c>
       <c r="I22">
+        <v>4.36759981042142</v>
+      </c>
+      <c r="J22">
         <v>6.3444751969341961</v>
       </c>
     </row>
